--- a/public/Shippments.xlsx
+++ b/public/Shippments.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="الورقة1" sheetId="1" r:id="rId4"/>
+    <sheet name="الورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>shipper name</t>
   </si>
@@ -55,90 +55,90 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -328,20 +328,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -357,7 +373,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -369,35 +385,32 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/Shippments.xlsx
+++ b/public/Shippments.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>shipper name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>business_referance</t>
   </si>
@@ -50,13 +47,19 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>seller_name</t>
+  </si>
+  <si>
+    <t>shipper_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -84,6 +87,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -108,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -123,6 +133,7 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,78 +349,90 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="12" width="12.6640625" style="3"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="17.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14" style="3" customWidth="1"/>
+    <col min="11" max="13" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"forward,exchange,cash_collection,return_pickup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
